--- a/test/en.xlsx
+++ b/test/en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunli\Documents\GitHub\Teest\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9F047D-E683-45EE-A170-D82F05B25FF1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4C70EA-18BF-48A7-95CC-27B6226FE95C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>

--- a/test/en.xlsx
+++ b/test/en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunli\Documents\GitHub\Teest\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4C70EA-18BF-48A7-95CC-27B6226FE95C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44157192-E321-4E24-B001-3FFD170099E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" characterSet="utf-8"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="7">
   <si>
     <t>source</t>
   </si>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,8 +77,8 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -104,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,25 +260,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -283,25 +286,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -314,21 +317,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -342,7 +345,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -354,32 +357,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -399,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -449,7 +452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -465,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>

--- a/test/en.xlsx
+++ b/test/en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunli\Documents\GitHub\Teest\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44157192-E321-4E24-B001-3FFD170099E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5FA526A7-FBCD-4233-8DF7-85F41F4E7035}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
